--- a/results/accel-glmm-results/glmm_multi_comp_hab_season_LMB.xlsx
+++ b/results/accel-glmm-results/glmm_multi_comp_hab_season_LMB.xlsx
@@ -50,22 +50,22 @@
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Summer) / (Shallow/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Summer) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Summer) / (Shallow/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Summer) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Summer) / (Deep/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Shallow/Dense SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Deep/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Shallow/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Shallow/Dense SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Deep/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Low SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Shallow/Low SAV Winter)</t>
@@ -86,22 +86,22 @@
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Shallow/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Summer) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Summer) / (Shallow/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Deep/Low SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Summer) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV Summer) / (Shallow/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Summer) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Shallow/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Mod/Dense SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Mod/Dense SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Deep/Low SAV Winter)</t>
@@ -110,37 +110,37 @@
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Deep/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Summer) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Spring) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Spring) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV Summer) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV Summer) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Exposed/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Shallow/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Deep/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Mod/Dense SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Exposed/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Low SAV Fall)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Summer) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Shallow/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Shallow/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Summer) / (Deep/Low SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Exposed/Low SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Mod/Dense SAV Summer)</t>
@@ -152,10 +152,10 @@
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV Spring) / (Shallow/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Dense SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Mod/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Exposed/Low SAV Summer)</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Spring) / (Shallow/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Spring) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Deep/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Shallow/Low SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Deep/Low SAV Spring)</t>
@@ -182,19 +182,19 @@
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Mod/Dense SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Spring) / (Shallow/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Dense SAV Winter) / (Exposed/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Deep/Low SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Dense SAV Spring)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Spring) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Spring) / (Deep/Low SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Deep/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Low SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Shallow/Dense SAV Summer)</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Exposed/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Spring) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Mod/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Exposed/Low SAV Fall) / (Shallow/Dense SAV Winter)</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Mod/Dense SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Spring) / (Deep/Low SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Mod/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Deep/Low SAV Summer) / (Shallow/Low SAV Summer)</t>
@@ -221,39 +221,39 @@
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Deep/Low SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Spring) / (Shallow/Low SAV Winter)</t>
+    <t xml:space="preserve">(Shallow/Low SAV Winter) / (Exposed/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Low SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Exposed/Low SAV Fall) / (Shallow/Low SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Fall) / (Shallow/Low SAV Spring)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Spring) / (Deep/Low SAV Winter)</t>
+    <t xml:space="preserve">(Deep/Low SAV Winter) / (Exposed/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deep/Low SAV Fall) / (Mod/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Exposed/Low SAV Spring)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Fall) / (Mod/Dense SAV Spring)</t>
+    <t xml:space="preserve">(Mod/Dense SAV Fall) / (Shallow/Dense SAV Winter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Fall) / (Deep/Low SAV Winter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Shallow/Low SAV Fall) / (Shallow/Dense SAV Spring)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Shallow/Low SAV Fall)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Fall) / (Shallow/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV Fall) / (Deep/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Fall) / (Shallow/Dense SAV Spring)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
@@ -266,18 +266,18 @@
     <t xml:space="preserve">(Deep/Low SAV Winter) / (Shallow/Low SAV Winter)</t>
   </si>
   <si>
+    <t xml:space="preserve">(Deep/Low SAV Fall) / (Exposed/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Fall) / (Shallow/Low SAV Winter)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(Exposed/Low SAV Fall) / (Shallow/Dense SAV Fall)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Deep/Low SAV Summer)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Fall) / (Shallow/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Fall) / (Exposed/Low SAV Spring)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Shallow/Low SAV Spring)</t>
   </si>
   <si>
@@ -509,18 +509,6 @@
     <t xml:space="preserve">(Deep/Low SAV Fall) / (Mod/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Deep/Low SAV Spring) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Spring) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Summer) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Deep/Low SAV Summer) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Deep/Low SAV Winter) / (Exposed/Low SAV Winter)</t>
   </si>
   <si>
@@ -533,24 +521,42 @@
     <t xml:space="preserve">(Exposed/Low SAV Fall) / (Mod/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Exposed/Low SAV Spring) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV Spring) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV Summer) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Exposed/Low SAV Summer) / (Mod/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Deep/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Deep/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Exposed/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Exposed/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Mod/Dense SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Mod/Dense SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Exposed/Low SAV Winter) / (Mod/Dense SAV Winter)</t>
   </si>
   <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Dense SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Dense SAV Summer)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Dense SAV Winter)</t>
   </si>
   <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Low SAV Summer)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(Exposed/Low SAV Winter) / (Shallow/Low SAV Winter)</t>
   </si>
   <si>
@@ -560,21 +566,39 @@
     <t xml:space="preserve">(Mod/Dense SAV Fall) / (Mod/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mod/Dense SAV Spring) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV Spring) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV Summer) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Mod/Dense SAV Summer) / (Mod/Dense SAV Winter)</t>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Deep/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Deep/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Exposed/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Exposed/Low SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Mod/Dense SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Mod/Dense SAV Summer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Dense SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Dense SAV Summer)</t>
   </si>
   <si>
     <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Dense SAV Winter)</t>
   </si>
   <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Low SAV Spring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Low SAV Summer)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(Mod/Dense SAV Winter) / (Shallow/Low SAV Winter)</t>
   </si>
   <si>
@@ -584,34 +608,10 @@
     <t xml:space="preserve">(Shallow/Dense SAV Fall) / (Mod/Dense SAV Winter)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Spring) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Summer) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Dense SAV Summer) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Exposed/Low SAV Winter)</t>
   </si>
   <si>
     <t xml:space="preserve">(Shallow/Low SAV Fall) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Spring) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Spring) / (Mod/Dense SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Summer) / (Exposed/Low SAV Winter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Shallow/Low SAV Summer) / (Mod/Dense SAV Winter)</t>
   </si>
 </sst>
 </file>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.389884480629762</v>
+        <v>0.389864352504574</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00862648042761296</v>
+        <v>0.0086263845636618</v>
       </c>
       <c r="F2" t="e">
         <v>#NUM!</v>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-42.5705549164276</v>
+        <v>-42.5711634923262</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43792630499044</v>
+        <v>0.438050903633672</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00826870948792153</v>
+        <v>0.00827255623182394</v>
       </c>
       <c r="F3" t="e">
         <v>#NUM!</v>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>-43.7308604052918</v>
+        <v>-43.70789820294</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.69480525947645</v>
+        <v>0.227481671626046</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0824431218877835</v>
+        <v>0.00756495003054539</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5718223724256</v>
+        <v>-44.5249256012554</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4.39555201983076</v>
+        <v>0.270636854714019</v>
       </c>
       <c r="E5" t="n">
-        <v>0.146170886484651</v>
+        <v>0.00603902589054368</v>
       </c>
       <c r="F5" t="e">
         <v>#NUM!</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>44.5233948961769</v>
+        <v>-58.5717386708033</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.28947408091993</v>
+        <v>0.304087095941043</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0630823691933224</v>
+        <v>0.0058324651338396</v>
       </c>
       <c r="F6" t="e">
         <v>#NUM!</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>62.0913252097164</v>
+        <v>-62.0660002929718</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3.72296815529375</v>
+        <v>0.268575819576202</v>
       </c>
       <c r="E7" t="n">
-        <v>0.158553851741864</v>
+        <v>0.0114383102368747</v>
       </c>
       <c r="F7" t="e">
         <v>#NUM!</v>
@@ -1140,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>30.8659844414251</v>
+        <v>-30.8678187521653</v>
       </c>
       <c r="I7" t="n">
-        <v>5.23078520022798e-207</v>
+        <v>4.94255601441032e-207</v>
       </c>
     </row>
     <row r="8">
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.25880656629955</v>
+        <v>0.30685242384802</v>
       </c>
       <c r="E8" t="n">
-        <v>0.128987489490627</v>
+        <v>0.0121459970778818</v>
       </c>
       <c r="F8" t="e">
         <v>#NUM!</v>
@@ -1169,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>29.8465156880895</v>
+        <v>-29.8462017321846</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000149053127406002</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000150457964315907</v>
       </c>
     </row>
     <row r="9">
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.90130574732727</v>
+        <v>0.344778845989082</v>
       </c>
       <c r="E9" t="n">
-        <v>0.110140286142204</v>
+        <v>0.0130897833279729</v>
       </c>
       <c r="F9" t="e">
         <v>#NUM!</v>
@@ -1198,10 +1198,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>28.0583747324909</v>
+        <v>-28.0477122337752</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000483048948207503</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000651718457038907</v>
       </c>
     </row>
     <row r="10">
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.8187561976197</v>
+        <v>1.81874683311286</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0396706595504505</v>
+        <v>0.0396718461350278</v>
       </c>
       <c r="F10" t="e">
         <v>#NUM!</v>
@@ -1227,10 +1227,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>27.42314427773</v>
+        <v>27.4219468096522</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000022230563987005</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000229736813822015</v>
       </c>
     </row>
     <row r="11">
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.492246835731043</v>
+        <v>0.492219922434747</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0127959403038907</v>
+        <v>0.0127957526355208</v>
       </c>
       <c r="F11" t="e">
         <v>#NUM!</v>
@@ -1256,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>-27.2658544521703</v>
+        <v>-27.2668668215145</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000164948190557617</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000160451348286546</v>
       </c>
     </row>
     <row r="12">
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.552901817396617</v>
+        <v>0.553057442733258</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0128608096746563</v>
+        <v>0.0128660639150117</v>
       </c>
       <c r="F12" t="e">
         <v>#NUM!</v>
@@ -1285,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>-25.4755115349315</v>
+        <v>-25.4601780156932</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000563528713381123</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000083324707495874</v>
       </c>
     </row>
     <row r="13">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.390313587662567</v>
+        <v>0.390276374820906</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0150606570804008</v>
+        <v>0.015059576271673</v>
       </c>
       <c r="F13" t="e">
         <v>#NUM!</v>
@@ -1314,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>-24.3819968613174</v>
+        <v>-24.3838928856401</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000040621725629256</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000387834992888561</v>
       </c>
     </row>
     <row r="14">
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.44054722961909</v>
+        <v>1.44054420421248</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0244229889214335</v>
+        <v>0.0244237929243031</v>
       </c>
       <c r="F14" t="e">
         <v>#NUM!</v>
@@ -1343,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>21.5302460462752</v>
+        <v>21.5293682085743</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000124085911826268</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000126458531283029</v>
       </c>
     </row>
     <row r="15">
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.71564367861759</v>
+        <v>1.71563876786731</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0508646826291941</v>
+        <v>0.050866218963417</v>
       </c>
       <c r="F15" t="e">
         <v>#NUM!</v>
@@ -1372,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>18.206826297788</v>
+        <v>18.2061277343798</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000697073362784276</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000070602255162233</v>
       </c>
     </row>
     <row r="16">
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>5.14150198558313</v>
+        <v>0.195880978283611</v>
       </c>
       <c r="E16" t="n">
-        <v>0.467631482225274</v>
+        <v>0.0178457322645557</v>
       </c>
       <c r="F16" t="e">
         <v>#NUM!</v>
@@ -1401,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>18.0022393349956</v>
+        <v>-17.8941709807443</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000286261109912333</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000200324107414331</v>
       </c>
     </row>
     <row r="17">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.57746385285015</v>
+        <v>0.460779088176669</v>
       </c>
       <c r="E17" t="n">
-        <v>0.413734108266818</v>
+        <v>0.0212698455671328</v>
       </c>
       <c r="F17" t="e">
         <v>#NUM!</v>
@@ -1430,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>16.8296173191451</v>
+        <v>-16.7856639521798</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000226525520614865</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000475423933841898</v>
       </c>
     </row>
     <row r="18">
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.460826847572705</v>
+        <v>0.220091524117422</v>
       </c>
       <c r="E18" t="n">
-        <v>0.021271662975479</v>
+        <v>0.0199418441075201</v>
       </c>
       <c r="F18" t="e">
         <v>#NUM!</v>
@@ -1459,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>-16.7837241625585</v>
+        <v>-16.706335453934</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000491214274238407</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000180325001157381</v>
       </c>
     </row>
     <row r="19">
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5.01748555503041</v>
+        <v>0.200350645484206</v>
       </c>
       <c r="E19" t="n">
-        <v>0.58767548176191</v>
+        <v>0.023466584936956</v>
       </c>
       <c r="F19" t="e">
         <v>#NUM!</v>
@@ -1488,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>13.7709464192866</v>
+        <v>-13.7259414952324</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0000000000000000000000000000000000000000583215337930196</v>
+        <v>0.000000000000000000000000000000000000000108631211792538</v>
       </c>
     </row>
     <row r="20">
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3.60568411138538</v>
+        <v>0.276812322507711</v>
       </c>
       <c r="E20" t="n">
-        <v>0.359219867374586</v>
+        <v>0.0275891221035051</v>
       </c>
       <c r="F20" t="e">
         <v>#NUM!</v>
@@ -1517,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>12.8732618396626</v>
+        <v>-12.8870373962289</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00000000000000000000000000000000000973937038953007</v>
+        <v>0.00000000000000000000000000000000000814731355039023</v>
       </c>
     </row>
     <row r="21">
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3.15874792360526</v>
+        <v>0.314297614058379</v>
       </c>
       <c r="E21" t="n">
-        <v>0.283544458854962</v>
+        <v>0.0282674345751973</v>
       </c>
       <c r="F21" t="e">
         <v>#NUM!</v>
@@ -1546,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>12.8132116899719</v>
+        <v>-12.868969375525</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0000000000000000000000000000000000211583653051115</v>
+        <v>0.0000000000000000000000000000000000102959937383225</v>
       </c>
     </row>
     <row r="22">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.6041372205205</v>
+        <v>1.60409331711369</v>
       </c>
       <c r="E22" t="n">
-        <v>0.062850631350783</v>
+        <v>0.0628511441722006</v>
       </c>
       <c r="F22" t="e">
         <v>#NUM!</v>
@@ -1575,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>12.0618180599224</v>
+        <v>12.0606910080066</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000000000000000000000000000000257089197616641</v>
+        <v>0.000000000000000000000000000000260631871718951</v>
       </c>
     </row>
     <row r="23">
@@ -1592,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.333685308967746</v>
+        <v>0.336061000231139</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0309532825545443</v>
+        <v>0.0312238823792876</v>
       </c>
       <c r="F23" t="e">
         <v>#NUM!</v>
@@ -1604,10 +1604,10 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>-11.8319799825851</v>
+        <v>-11.7365913474218</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00000000000000000000000000000408163799101907</v>
+        <v>0.0000000000000000000000000000126615180046726</v>
       </c>
     </row>
     <row r="24">
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5.12608991482144</v>
+        <v>0.196177147109795</v>
       </c>
       <c r="E24" t="n">
-        <v>0.713012105857409</v>
+        <v>0.0272997744739375</v>
       </c>
       <c r="F24" t="e">
         <v>#NUM!</v>
@@ -1633,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>11.7498566513996</v>
+        <v>-11.7041633718491</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0000000000000000000000000000108230279744825</v>
+        <v>0.000000000000000000000000000018566582768876</v>
       </c>
     </row>
     <row r="25">
@@ -1650,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.98011816670473</v>
+        <v>0.251218206419641</v>
       </c>
       <c r="E25" t="n">
-        <v>0.473722452909456</v>
+        <v>0.0299003031552457</v>
       </c>
       <c r="F25" t="e">
         <v>#NUM!</v>
@@ -1662,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>11.6054938857417</v>
+        <v>-11.6066118629014</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0000000000000000000000000000591268429093642</v>
+        <v>0.0000000000000000000000000000583590687661243</v>
       </c>
     </row>
     <row r="26">
@@ -1679,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>4.29580425032646</v>
+        <v>0.232755186416969</v>
       </c>
       <c r="E26" t="n">
-        <v>0.551743006751166</v>
+        <v>0.0298945645581557</v>
       </c>
       <c r="F26" t="e">
         <v>#NUM!</v>
@@ -1691,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>11.3489991454167</v>
+        <v>-11.3499924215776</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00000000000000000000000000114775166757562</v>
+        <v>0.0000000000000000000000000011347876775225</v>
       </c>
     </row>
     <row r="27">
@@ -1708,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.18020199523307</v>
+        <v>0.313854268673967</v>
       </c>
       <c r="E27" t="n">
-        <v>0.331819746764715</v>
+        <v>0.0327597967700728</v>
       </c>
       <c r="F27" t="e">
         <v>#NUM!</v>
@@ -1720,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>11.0883029952496</v>
+        <v>-11.1021033008176</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0000000000000000000000000218750649086516</v>
+        <v>0.0000000000000000000000000187464767835489</v>
       </c>
     </row>
     <row r="28">
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.68372977992409</v>
+        <v>0.271046053199166</v>
       </c>
       <c r="E28" t="n">
-        <v>0.434633157298426</v>
+        <v>0.0320038015981255</v>
       </c>
       <c r="F28" t="e">
         <v>#NUM!</v>
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>11.0514121957701</v>
+        <v>-11.0562350127271</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0000000000000000000000000330163716361767</v>
+        <v>0.0000000000000000000000000312889044227915</v>
       </c>
     </row>
     <row r="29">
@@ -1766,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.792050760571653</v>
+        <v>0.35635569584702</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0171646336878907</v>
+        <v>0.0340150039240771</v>
       </c>
       <c r="F29" t="e">
         <v>#NUM!</v>
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>-10.7576215636825</v>
+        <v>-10.8098484384614</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000000000000000000000000834770502294439</v>
+        <v>0.000000000000000000000000473046107147273</v>
       </c>
     </row>
     <row r="30">
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.78600568956332</v>
+        <v>0.792053175288242</v>
       </c>
       <c r="E30" t="n">
-        <v>0.265478470487115</v>
+        <v>0.0171652917006135</v>
       </c>
       <c r="F30" t="e">
         <v>#NUM!</v>
@@ -1807,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>10.752533976271</v>
+        <v>-10.7571013028042</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00000000000000000000000088212999512815</v>
+        <v>0.000000000000000000000000839495432018162</v>
       </c>
     </row>
     <row r="31">
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.37480223411253</v>
+        <v>0.377597551254853</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0345592825521471</v>
+        <v>0.0348991410592149</v>
       </c>
       <c r="F31" t="e">
         <v>#NUM!</v>
@@ -1836,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>-10.6430076633262</v>
+        <v>-10.5375715864906</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00000000000000000000000287582126711743</v>
+        <v>0.00000000000000000000000887042553527905</v>
       </c>
     </row>
     <row r="32">
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.67541320797186</v>
+        <v>0.371074903235893</v>
       </c>
       <c r="E32" t="n">
-        <v>0.255293316197755</v>
+        <v>0.0354684885361579</v>
       </c>
       <c r="F32" t="e">
         <v>#NUM!</v>
@@ -1865,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>10.3131740668197</v>
+        <v>-10.3716176867184</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0000000000000000000000940001616501384</v>
+        <v>0.0000000000000000000000510752272605162</v>
       </c>
     </row>
     <row r="33">
@@ -1882,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.53088808330817</v>
+        <v>2.51285207347736</v>
       </c>
       <c r="E33" t="n">
-        <v>0.232163251059156</v>
+        <v>0.23090684583024</v>
       </c>
       <c r="F33" t="e">
         <v>#NUM!</v>
@@ -1894,10 +1894,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>10.1226503352115</v>
+        <v>10.0273688696605</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000000000000000000000670723251500437</v>
+        <v>0.00000000000000000000176798859026283</v>
       </c>
     </row>
     <row r="34">
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3.24903802832382</v>
+        <v>0.307316379679663</v>
       </c>
       <c r="E34" t="n">
-        <v>0.396374932138451</v>
+        <v>0.0375175460087529</v>
       </c>
       <c r="F34" t="e">
         <v>#NUM!</v>
@@ -1923,10 +1923,10 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>9.6588678185029</v>
+        <v>-9.66469620783537</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0000000000000000000689752391894563</v>
+        <v>0.000000000000000000065159883830843</v>
       </c>
     </row>
     <row r="35">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.39952119628849</v>
+        <v>0.398760386843078</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0397617126170646</v>
+        <v>0.0397025870897384</v>
       </c>
       <c r="F35" t="e">
         <v>#NUM!</v>
@@ -1952,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>-9.21882037394841</v>
+        <v>-9.23411203010197</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00000000000000000459591388890743</v>
+        <v>0.00000000000000000398468848197323</v>
       </c>
     </row>
     <row r="36">
@@ -1969,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.341932958212012</v>
+        <v>0.343729334559944</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0405275232562666</v>
+        <v>0.040741077958616</v>
       </c>
       <c r="F36" t="e">
         <v>#NUM!</v>
@@ -1981,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>-9.05414658853457</v>
+        <v>-9.00979631315017</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0000000000000000210588963459221</v>
+        <v>0.0000000000000000315852514733343</v>
       </c>
     </row>
     <row r="37">
@@ -1998,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.456050075681541</v>
+        <v>0.452759606329608</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0408992746176825</v>
+        <v>0.0406834038810314</v>
       </c>
       <c r="F37" t="e">
         <v>#NUM!</v>
@@ -2010,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.75489684222567</v>
+        <v>-8.81843565913269</v>
       </c>
       <c r="I37" t="n">
-        <v>0.000000000000000312564083989637</v>
+        <v>0.000000000000000177586899873358</v>
       </c>
     </row>
     <row r="38">
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.35970599731654</v>
+        <v>0.420730700581871</v>
       </c>
       <c r="E38" t="n">
-        <v>0.237456727267437</v>
+        <v>0.0424017749419911</v>
       </c>
       <c r="F38" t="e">
         <v>#NUM!</v>
@@ -2039,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>8.53163863181281</v>
+        <v>-8.59050797442562</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00000000000000220762428495862</v>
+        <v>0.00000000000000132476060084141</v>
       </c>
     </row>
     <row r="39">
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>4.946087497419</v>
+        <v>0.202154782277737</v>
       </c>
       <c r="E39" t="n">
-        <v>0.986678356838007</v>
+        <v>0.0403280607019368</v>
       </c>
       <c r="F39" t="e">
         <v>#NUM!</v>
@@ -2068,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>8.01355364218981</v>
+        <v>-8.01400356530023</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000000000000170504157951753</v>
+        <v>0.000000000000169881236041996</v>
       </c>
     </row>
     <row r="40">
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.391056704937997</v>
+        <v>0.390453821010725</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0461028619989307</v>
+        <v>0.0460660931993072</v>
       </c>
       <c r="F40" t="e">
         <v>#NUM!</v>
@@ -2097,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>-7.96402179390314</v>
+        <v>-7.97116798561622</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000000000000254799936361542</v>
+        <v>0.000000000000240487969124007</v>
       </c>
     </row>
     <row r="41">
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.334688565188258</v>
+        <v>0.336569118951174</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0469486899441416</v>
+        <v>0.0472337126827713</v>
       </c>
       <c r="F41" t="e">
         <v>#NUM!</v>
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>-7.80287986564576</v>
+        <v>-7.75944783381876</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000000000000925805265453779</v>
+        <v>0.00000000000130508911919917</v>
       </c>
     </row>
     <row r="42">
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2.00459183130597</v>
+        <v>1.99031246382739</v>
       </c>
       <c r="E42" t="n">
-        <v>0.181810556280904</v>
+        <v>0.180833077451321</v>
       </c>
       <c r="F42" t="e">
         <v>#NUM!</v>
@@ -2155,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>7.66773009810559</v>
+        <v>7.57557995436073</v>
       </c>
       <c r="I42" t="n">
-        <v>0.00000000000267852176359924</v>
+        <v>0.00000000000547016061932409</v>
       </c>
     </row>
     <row r="43">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>3.08706681088393</v>
+        <v>0.321583709261748</v>
       </c>
       <c r="E43" t="n">
-        <v>0.46922025926539</v>
+        <v>0.0489126770356775</v>
       </c>
       <c r="F43" t="e">
         <v>#NUM!</v>
@@ -2184,10 +2184,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>7.41614980710029</v>
+        <v>-7.45892279026196</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0000000000184478391789554</v>
+        <v>0.0000000000133466036467655</v>
       </c>
     </row>
     <row r="44">
@@ -2201,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.86020730458019</v>
+        <v>0.347092943010879</v>
       </c>
       <c r="E44" t="n">
-        <v>0.412234040815631</v>
+        <v>0.0500632724735064</v>
       </c>
       <c r="F44" t="e">
         <v>#NUM!</v>
@@ -2213,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>7.29142841600527</v>
+        <v>-7.33633227072719</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0000000000469229320642809</v>
+        <v>0.0000000000335875733640793</v>
       </c>
     </row>
     <row r="45">
@@ -2230,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.399376596009282</v>
+        <v>0.399323821239136</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0518595869522859</v>
+        <v>0.0518527742045534</v>
       </c>
       <c r="F45" t="e">
         <v>#NUM!</v>
@@ -2242,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>-7.06847109552764</v>
+        <v>-7.06948333927725</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000000000239674455087499</v>
+        <v>0.00000000023793275021121</v>
       </c>
     </row>
     <row r="46">
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.431053452877261</v>
+        <v>0.430999694127629</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0519619282329052</v>
+        <v>0.0519550142846439</v>
       </c>
       <c r="F46" t="e">
         <v>#NUM!</v>
@@ -2271,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>-6.98090858085226</v>
+        <v>-6.98200148410783</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000000000448713987746153</v>
+        <v>0.000000000445236203817168</v>
       </c>
     </row>
     <row r="47">
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.50441362621777</v>
+        <v>0.503451534927516</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0506887730507478</v>
+        <v>0.0506129215088401</v>
       </c>
       <c r="F47" t="e">
         <v>#NUM!</v>
@@ -2300,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>-6.81018325805654</v>
+        <v>-6.82637123052554</v>
       </c>
       <c r="I47" t="n">
-        <v>0.00000000149135981101594</v>
+        <v>0.00000000133246772477316</v>
       </c>
     </row>
     <row r="48">
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>4.50068628223532</v>
+        <v>0.222170108538121</v>
       </c>
       <c r="E48" t="n">
-        <v>1.02630871414469</v>
+        <v>0.050662583321586</v>
       </c>
       <c r="F48" t="e">
         <v>#NUM!</v>
@@ -2329,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>6.59652086000009</v>
+        <v>-6.59684374843381</v>
       </c>
       <c r="I48" t="n">
-        <v>0.00000000644005003949203</v>
+        <v>0.00000000642604586508421</v>
       </c>
     </row>
     <row r="49">
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.27055810557456</v>
+        <v>0.534549801185171</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0465550531238725</v>
+        <v>0.0510517290988226</v>
       </c>
       <c r="F49" t="e">
         <v>#NUM!</v>
@@ -2358,10 +2358,10 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>6.5351249334808</v>
+        <v>-6.55814770081982</v>
       </c>
       <c r="I49" t="n">
-        <v>0.00000000972413910983186</v>
+        <v>0.00000000833547603919715</v>
       </c>
     </row>
     <row r="50">
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.538439155987839</v>
+        <v>1.27052720527855</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0513357731073886</v>
+        <v>0.0465555698664657</v>
       </c>
       <c r="F50" t="e">
         <v>#NUM!</v>
@@ -2387,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>-6.49327575546247</v>
+        <v>6.5342297416272</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0000000128504314593838</v>
+        <v>0.00000000978247354788073</v>
       </c>
     </row>
     <row r="51">
@@ -2404,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>2.72278317459672</v>
+        <v>0.364616787914114</v>
       </c>
       <c r="E51" t="n">
-        <v>0.422890724195783</v>
+        <v>0.0566674296136069</v>
       </c>
       <c r="F51" t="e">
         <v>#NUM!</v>
@@ -2416,10 +2416,10 @@
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>6.44915598674698</v>
+        <v>-6.49164666176558</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0000000172086373928551</v>
+        <v>0.0000000129901897632431</v>
       </c>
     </row>
     <row r="52">
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>2.52269380672707</v>
+        <v>0.393539567905398</v>
       </c>
       <c r="E52" t="n">
-        <v>0.372411417084313</v>
+        <v>0.0581374567228049</v>
       </c>
       <c r="F52" t="e">
         <v>#NUM!</v>
@@ -2445,10 +2445,10 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>6.268114632403</v>
+        <v>-6.31270538540554</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0000000559131957725316</v>
+        <v>0.0000000419524769078021</v>
       </c>
     </row>
     <row r="53">
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.575783899699045</v>
+        <v>0.571627790223606</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0522395418628772</v>
+        <v>0.0519617010943201</v>
       </c>
       <c r="F53" t="e">
         <v>#NUM!</v>
@@ -2474,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>-6.08439249925117</v>
+        <v>-6.1524676055804</v>
       </c>
       <c r="I53" t="n">
-        <v>0.000000178908756198204</v>
+        <v>0.000000116718432694709</v>
       </c>
     </row>
     <row r="54">
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.493726822073571</v>
+        <v>0.492964150883723</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0586091338719226</v>
+        <v>0.0585617221455506</v>
       </c>
       <c r="F54" t="e">
         <v>#NUM!</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>-5.94547285062344</v>
+        <v>-5.95410808673812</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000000421759705633512</v>
+        <v>0.000000400085741116448</v>
       </c>
     </row>
     <row r="55">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>3.55437577395427</v>
+        <v>0.279304988776552</v>
       </c>
       <c r="E55" t="n">
-        <v>0.765646856825963</v>
+        <v>0.0601865685530694</v>
       </c>
       <c r="F55" t="e">
         <v>#NUM!</v>
@@ -2532,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>5.88729163867364</v>
+        <v>-5.91892543962051</v>
       </c>
       <c r="I55" t="n">
-        <v>0.000000600640702375844</v>
+        <v>0.000000495799284148098</v>
       </c>
     </row>
     <row r="56">
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3.61872357980399</v>
+        <v>3.59323632727249</v>
       </c>
       <c r="E56" t="n">
-        <v>0.793518037100101</v>
+        <v>0.788192073904583</v>
       </c>
       <c r="F56" t="e">
         <v>#NUM!</v>
@@ -2561,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>5.86516938414827</v>
+        <v>5.83099077439622</v>
       </c>
       <c r="I56" t="n">
-        <v>0.000000686471880744129</v>
+        <v>0.000000843018239071665</v>
       </c>
     </row>
     <row r="57">
@@ -2578,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.346868849269822</v>
+        <v>0.346824581585462</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0695124298441824</v>
+        <v>0.0695050559663216</v>
       </c>
       <c r="F57" t="e">
         <v>#NUM!</v>
@@ -2590,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>-5.28348233543501</v>
+        <v>-5.28400537092889</v>
       </c>
       <c r="I57" t="n">
-        <v>0.000019392916897238</v>
+        <v>0.0000193376000823378</v>
       </c>
     </row>
     <row r="58">
@@ -2607,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>3.13494820371115</v>
+        <v>0.316680493828135</v>
       </c>
       <c r="E58" t="n">
-        <v>0.682682214646644</v>
+        <v>0.0689859582331073</v>
       </c>
       <c r="F58" t="e">
         <v>#NUM!</v>
@@ -2619,10 +2619,10 @@
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>5.24699692491398</v>
+        <v>-5.27844868377428</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0000236535671955035</v>
+        <v>0.0000199331673610754</v>
       </c>
     </row>
     <row r="59">
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1.12322066342081</v>
+        <v>1.12359824851782</v>
       </c>
       <c r="E59" t="n">
-        <v>0.025426817872583</v>
+        <v>0.0254412679977403</v>
       </c>
       <c r="F59" t="e">
         <v>#NUM!</v>
@@ -2648,10 +2648,10 @@
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>5.13310046877555</v>
+        <v>5.1467534854435</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0000436061729130797</v>
+        <v>0.0000405500866557851</v>
       </c>
     </row>
     <row r="60">
@@ -2665,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.466639472958674</v>
+        <v>0.463255548546161</v>
       </c>
       <c r="E60" t="n">
-        <v>0.070903484934902</v>
+        <v>0.070437769681039</v>
       </c>
       <c r="F60" t="e">
         <v>#NUM!</v>
@@ -2677,10 +2677,10 @@
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>-5.01628129350861</v>
+        <v>-5.0606972690551</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0000806022091638809</v>
+        <v>0.0000639120799904971</v>
       </c>
     </row>
     <row r="61">
@@ -2694,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>3.2342998978674</v>
+        <v>0.306958949833159</v>
       </c>
       <c r="E61" t="n">
-        <v>0.782980033964686</v>
+        <v>0.0743309533307882</v>
       </c>
       <c r="F61" t="e">
         <v>#NUM!</v>
@@ -2706,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>4.84873362118411</v>
+        <v>-4.8772572779465</v>
       </c>
       <c r="I61" t="n">
-        <v>0.000190105771835761</v>
+        <v>0.000164583769359616</v>
       </c>
     </row>
     <row r="62">
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>2.60050058382595</v>
+        <v>0.500002727377373</v>
       </c>
       <c r="E62" t="n">
-        <v>0.521500898571855</v>
+        <v>0.0720920606345883</v>
       </c>
       <c r="F62" t="e">
         <v>#NUM!</v>
@@ -2735,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>4.76568441102295</v>
+        <v>-4.80736367248211</v>
       </c>
       <c r="I62" t="n">
-        <v>0.000287966901583663</v>
+        <v>0.000233988466151548</v>
       </c>
     </row>
     <row r="63">
@@ -2752,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.503651335800825</v>
+        <v>2.60070509515083</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0725630427145228</v>
+        <v>0.521569102227088</v>
       </c>
       <c r="F63" t="e">
         <v>#NUM!</v>
@@ -2764,10 +2764,10 @@
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>-4.76054827298754</v>
+        <v>4.76582808240288</v>
       </c>
       <c r="I63" t="n">
-        <v>0.000295393652598351</v>
+        <v>0.000287761757173148</v>
       </c>
     </row>
     <row r="64">
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1.57772542830654</v>
+        <v>1.56652486901375</v>
       </c>
       <c r="E64" t="n">
-        <v>0.151839688721939</v>
+        <v>0.150993570953313</v>
       </c>
       <c r="F64" t="e">
         <v>#NUM!</v>
@@ -2793,10 +2793,10 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>4.7380094433811</v>
+        <v>4.65682008167036</v>
       </c>
       <c r="I64" t="n">
-        <v>0.000330216468459453</v>
+        <v>0.000491330198981826</v>
       </c>
     </row>
     <row r="65">
@@ -2810,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>2.85264229218017</v>
+        <v>0.348035000176451</v>
       </c>
       <c r="E65" t="n">
-        <v>0.696571404310695</v>
+        <v>0.0850075013346945</v>
       </c>
       <c r="F65" t="e">
         <v>#NUM!</v>
@@ -2822,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>4.29284055395622</v>
+        <v>-4.32119884662583</v>
       </c>
       <c r="I65" t="n">
-        <v>0.00269894581722782</v>
+        <v>0.00237431130144775</v>
       </c>
     </row>
     <row r="66">
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.381196015680856</v>
+        <v>0.402351182789692</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0872302486100314</v>
+        <v>0.0866872500777165</v>
       </c>
       <c r="F66" t="e">
         <v>#NUM!</v>
@@ -2851,10 +2851,10 @@
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>-4.21460772634043</v>
+        <v>-4.2256800170089</v>
       </c>
       <c r="I66" t="n">
-        <v>0.00382825432477913</v>
+        <v>0.00364477055526944</v>
       </c>
     </row>
     <row r="67">
@@ -2868,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.405288388519616</v>
+        <v>0.381163651269289</v>
       </c>
       <c r="E67" t="n">
-        <v>0.087288560972332</v>
+        <v>0.0872233164333567</v>
       </c>
       <c r="F67" t="e">
         <v>#NUM!</v>
@@ -2880,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>-4.1934337761562</v>
+        <v>-4.21495586558438</v>
       </c>
       <c r="I67" t="n">
-        <v>0.00420387872988564</v>
+        <v>0.00382235371094225</v>
       </c>
     </row>
     <row r="68">
@@ -2897,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.677882080180739</v>
+        <v>5.02226024888533</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0634004843219841</v>
+        <v>1.97486146235874</v>
       </c>
       <c r="F68" t="e">
         <v>#NUM!</v>
@@ -2909,10 +2909,10 @@
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>-4.15688154002048</v>
+        <v>4.10425031453434</v>
       </c>
       <c r="I68" t="n">
-        <v>0.00493610384693538</v>
+        <v>0.0062061097719924</v>
       </c>
     </row>
     <row r="69">
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>5.05833944055135</v>
+        <v>2.29376270900487</v>
       </c>
       <c r="E69" t="n">
-        <v>1.98885540080503</v>
+        <v>0.465248514252146</v>
       </c>
       <c r="F69" t="e">
         <v>#NUM!</v>
@@ -2938,10 +2938,10 @@
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>4.12285465288199</v>
+        <v>4.0930105134186</v>
       </c>
       <c r="I69" t="n">
-        <v>0.00572534927165135</v>
+        <v>0.00651486861332883</v>
       </c>
     </row>
     <row r="70">
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>2.29363329948238</v>
+        <v>0.674891305107941</v>
       </c>
       <c r="E70" t="n">
-        <v>0.465198204121537</v>
+        <v>0.0651189190863882</v>
       </c>
       <c r="F70" t="e">
         <v>#NUM!</v>
@@ -2967,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>4.09294404512176</v>
+        <v>-4.07515534832971</v>
       </c>
       <c r="I70" t="n">
-        <v>0.00651673712116187</v>
+        <v>0.00703549686220365</v>
       </c>
     </row>
     <row r="71">
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.679803849439179</v>
+        <v>0.682745628354143</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0654832813095617</v>
+        <v>0.0639612853652458</v>
       </c>
       <c r="F71" t="e">
         <v>#NUM!</v>
@@ -2996,10 +2996,10 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>-4.0066862267876</v>
+        <v>-4.07368625257392</v>
       </c>
       <c r="I71" t="n">
-        <v>0.00942121646148852</v>
+        <v>0.00708004622721806</v>
       </c>
     </row>
     <row r="72">
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.846985347573498</v>
+        <v>0.846992376249654</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0376181921233173</v>
+        <v>0.0376197812265881</v>
       </c>
       <c r="F72" t="e">
         <v>#NUM!</v>
@@ -3025,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>-3.73916034198688</v>
+        <v>-3.73884658812189</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0282492982085135</v>
+        <v>0.0282845734722822</v>
       </c>
     </row>
     <row r="73">
@@ -3042,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.718623715372814</v>
+        <v>0.72377791446992</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0652376670761496</v>
+        <v>0.0658201366630291</v>
       </c>
       <c r="F73" t="e">
         <v>#NUM!</v>
@@ -3054,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>-3.63970375036812</v>
+        <v>-3.55478112955263</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0417616388463743</v>
+        <v>0.0578789594483471</v>
       </c>
     </row>
     <row r="74">
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.589153493927438</v>
+        <v>0.584879352800492</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0898841838096276</v>
+        <v>0.0892932525354454</v>
       </c>
       <c r="F74" t="e">
         <v>#NUM!</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>-3.46782446938155</v>
+        <v>-3.5131418021049</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0802775532807155</v>
+        <v>0.0677546833954098</v>
       </c>
     </row>
     <row r="75">
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1.13379090912781</v>
+        <v>1.13381610266004</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0418553647608191</v>
+        <v>0.0418577804545217</v>
       </c>
       <c r="F75" t="e">
         <v>#NUM!</v>
@@ -3112,10 +3112,10 @@
         <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>3.40139197463231</v>
+        <v>3.40187314114622</v>
       </c>
       <c r="I75" t="n">
-        <v>0.102576738853015</v>
+        <v>0.102396315142094</v>
       </c>
     </row>
     <row r="76">
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>2.10925125357023</v>
+        <v>0.442187936113306</v>
       </c>
       <c r="E76" t="n">
-        <v>0.46411558997643</v>
+        <v>0.107063173585062</v>
       </c>
       <c r="F76" t="e">
         <v>#NUM!</v>
@@ -3141,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>3.39183580491084</v>
+        <v>-3.37029360200426</v>
       </c>
       <c r="I76" t="n">
-        <v>0.106221827530038</v>
+        <v>0.114884843572146</v>
       </c>
     </row>
     <row r="77">
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.724101277356894</v>
+        <v>3.6350010488634</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0692271923476639</v>
+        <v>1.39238511568706</v>
       </c>
       <c r="F77" t="e">
         <v>#NUM!</v>
@@ -3170,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>-3.37666848036349</v>
+        <v>3.36930240643484</v>
       </c>
       <c r="I77" t="n">
-        <v>0.112255216632656</v>
+        <v>0.115298811937383</v>
       </c>
     </row>
     <row r="78">
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3.63504268238585</v>
+        <v>2.09440145243348</v>
       </c>
       <c r="E78" t="n">
-        <v>1.39239095457133</v>
+        <v>0.461000567385577</v>
       </c>
       <c r="F78" t="e">
         <v>#NUM!</v>
@@ -3199,10 +3199,10 @@
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>3.36935676861609</v>
+        <v>3.35861533330623</v>
       </c>
       <c r="I78" t="n">
-        <v>0.115276071963271</v>
+        <v>0.119851058745165</v>
       </c>
     </row>
     <row r="79">
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.445396925179678</v>
+        <v>0.729332143871704</v>
       </c>
       <c r="E79" t="n">
-        <v>0.107810390161276</v>
+        <v>0.0698409226270485</v>
       </c>
       <c r="F79" t="e">
         <v>#NUM!</v>
@@ -3228,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.34135071462266</v>
+        <v>-3.29600761428226</v>
       </c>
       <c r="I79" t="n">
-        <v>0.127558911397292</v>
+        <v>0.150046116523697</v>
       </c>
     </row>
     <row r="80">
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.635882649032899</v>
+        <v>0.631274190896859</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0920298722862546</v>
+        <v>0.0914318901193052</v>
       </c>
       <c r="F80" t="e">
         <v>#NUM!</v>
@@ -3257,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>-3.1282266960513</v>
+        <v>-3.17608639581767</v>
       </c>
       <c r="I80" t="n">
-        <v>0.269072657249847</v>
+        <v>0.228393024571128</v>
       </c>
     </row>
     <row r="81">
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.511694967917339</v>
+        <v>0.507985063809976</v>
       </c>
       <c r="E81" t="n">
-        <v>0.110429840459696</v>
+        <v>0.109668758144487</v>
       </c>
       <c r="F81" t="e">
         <v>#NUM!</v>
@@ -3286,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>-3.10467928564979</v>
+        <v>-3.13726472565291</v>
       </c>
       <c r="I81" t="n">
-        <v>0.291442730908478</v>
+        <v>0.260914079081402</v>
       </c>
     </row>
     <row r="82">
@@ -3303,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>3.20609616210644</v>
+        <v>3.20598820243896</v>
       </c>
       <c r="E82" t="n">
-        <v>1.23193201199494</v>
+        <v>1.23189967569347</v>
       </c>
       <c r="F82" t="e">
         <v>#NUM!</v>
@@ -3315,10 +3315,10 @@
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>3.0320466357487</v>
+        <v>3.03193648755563</v>
       </c>
       <c r="I82" t="n">
-        <v>0.371639559748356</v>
+        <v>0.371775197375971</v>
       </c>
     </row>
     <row r="83">
@@ -3332,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.553949973546902</v>
+        <v>0.553905249348899</v>
       </c>
       <c r="E83" t="n">
-        <v>0.111055447225911</v>
+        <v>0.111052271093449</v>
       </c>
       <c r="F83" t="e">
         <v>#NUM!</v>
@@ -3344,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>-2.94634504937213</v>
+        <v>-2.94659414509081</v>
       </c>
       <c r="I83" t="n">
-        <v>0.491976824328375</v>
+        <v>0.491580734002903</v>
       </c>
     </row>
     <row r="84">
@@ -3361,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>2.94836247386008</v>
+        <v>2.92734131621917</v>
       </c>
       <c r="E84" t="n">
-        <v>1.16049339126632</v>
+        <v>1.15233084199429</v>
       </c>
       <c r="F84" t="e">
         <v>#NUM!</v>
@@ -3373,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>2.74703563218793</v>
+        <v>2.72859270637646</v>
       </c>
       <c r="I84" t="n">
-        <v>0.920089990405375</v>
+        <v>0.973159697860361</v>
       </c>
     </row>
     <row r="85">
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.396294446994935</v>
+        <v>0.39629815365883</v>
       </c>
       <c r="E85" t="n">
-        <v>0.151786928968406</v>
+        <v>0.151789449786353</v>
       </c>
       <c r="F85" t="e">
         <v>#NUM!</v>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>-2.41660640491574</v>
+        <v>-2.41656445452905</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -3419,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1.168419676119</v>
+        <v>1.16009995874686</v>
       </c>
       <c r="E86" t="n">
-        <v>0.108093419149389</v>
+        <v>0.107504973901174</v>
       </c>
       <c r="F86" t="e">
         <v>#NUM!</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1.68249847807284</v>
+        <v>1.60254915299846</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -3448,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.835515431555211</v>
+        <v>0.841575138663937</v>
       </c>
       <c r="E87" t="n">
-        <v>0.127101272057516</v>
+        <v>0.12810785951602</v>
       </c>
       <c r="F87" t="e">
         <v>#NUM!</v>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>-1.18132194204547</v>
+        <v>-1.1330675724898</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.954477602067589</v>
+        <v>0.954522698111286</v>
       </c>
       <c r="E88" t="n">
-        <v>0.237912660182573</v>
+        <v>0.237929032056573</v>
       </c>
       <c r="F88" t="e">
         <v>#NUM!</v>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.186918018584735</v>
+        <v>-0.186724447281166</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -3506,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.838027487170228</v>
+        <v>0.842847586469475</v>
       </c>
       <c r="E89" t="n">
-        <v>0.154914591642181</v>
+        <v>0.155851351550119</v>
       </c>
       <c r="F89" t="e">
         <v>#NUM!</v>
@@ -3518,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.955901728798861</v>
+        <v>-0.924604903671012</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3535,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8685257291886</v>
+        <v>0.868529657232156</v>
       </c>
       <c r="E90" t="n">
-        <v>0.19406413367351</v>
+        <v>0.194072476990045</v>
       </c>
       <c r="F90" t="e">
         <v>#NUM!</v>
@@ -3547,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.630851807820958</v>
+        <v>-0.630807299916191</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -3564,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.85616673993602</v>
+        <v>0.860778436641528</v>
       </c>
       <c r="E91" t="n">
-        <v>0.144683268729595</v>
+        <v>0.145468995468504</v>
       </c>
       <c r="F91" t="e">
         <v>#NUM!</v>
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.918933110697425</v>
+        <v>-0.88710520052868</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1.15386542971585</v>
+        <v>1.15389832428938</v>
       </c>
       <c r="E92" t="n">
-        <v>0.149576917094621</v>
+        <v>0.149582578547151</v>
       </c>
       <c r="F92" t="e">
         <v>#NUM!</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1.10403660991615</v>
+        <v>1.10424620907262</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -3622,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.977307112040926</v>
+        <v>0.977343083640352</v>
       </c>
       <c r="E93" t="n">
-        <v>0.122557054140045</v>
+        <v>0.122563213525858</v>
       </c>
       <c r="F93" t="e">
         <v>#NUM!</v>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.1830448230639</v>
+        <v>-0.182748861494858</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1.07931575656788</v>
+        <v>1.0793237748507</v>
       </c>
       <c r="E94" t="n">
-        <v>0.168238933061183</v>
+        <v>0.168246651562405</v>
       </c>
       <c r="F94" t="e">
         <v>#NUM!</v>
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.489668094114686</v>
+        <v>0.489696925728926</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3680,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.938468197329769</v>
+        <v>0.945592351798939</v>
       </c>
       <c r="E95" t="n">
-        <v>0.142416570444389</v>
+        <v>0.143632160248858</v>
       </c>
       <c r="F95" t="e">
         <v>#NUM!</v>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.418481166178081</v>
+        <v>-0.368301599050301</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1.00300659391813</v>
+        <v>1.00151198359728</v>
       </c>
       <c r="E96" t="n">
-        <v>0.118853302546727</v>
+        <v>0.118761555668545</v>
       </c>
       <c r="F96" t="e">
         <v>#NUM!</v>
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.025334670002123</v>
+        <v>0.0127408744379135</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -3738,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1.02471684854745</v>
+        <v>1.02281828097736</v>
       </c>
       <c r="E97" t="n">
-        <v>0.102811649883535</v>
+        <v>0.102660730515224</v>
       </c>
       <c r="F97" t="e">
         <v>#NUM!</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.243355921678491</v>
+        <v>0.22478566024833</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -3767,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>1.16970563933426</v>
+        <v>1.16132599305626</v>
       </c>
       <c r="E98" t="n">
-        <v>0.105237815333323</v>
+        <v>0.104679062532345</v>
       </c>
       <c r="F98" t="e">
         <v>#NUM!</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1.74228100578724</v>
+        <v>1.65926935405081</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.84238558577919</v>
+        <v>0.836344391194534</v>
       </c>
       <c r="E99" t="n">
-        <v>0.211344852217966</v>
+        <v>0.209887350453006</v>
       </c>
       <c r="F99" t="e">
         <v>#NUM!</v>
@@ -3808,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.683640072411157</v>
+        <v>-0.712130196951469</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.703826156238189</v>
+        <v>0.703846646990345</v>
       </c>
       <c r="E100" t="n">
-        <v>0.141475112227517</v>
+        <v>0.141486578449387</v>
       </c>
       <c r="F100" t="e">
         <v>#NUM!</v>
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>-1.74730775557081</v>
+        <v>-1.74707219098578</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -3854,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.804038173930823</v>
+        <v>0.798309704833247</v>
       </c>
       <c r="E101" t="n">
-        <v>0.25227872713958</v>
+        <v>0.250526421324425</v>
       </c>
       <c r="F101" t="e">
         <v>#NUM!</v>
@@ -3866,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.695134254502922</v>
+        <v>-0.717793236562092</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -3883,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.705942275678956</v>
+        <v>0.704910851575595</v>
       </c>
       <c r="E102" t="n">
-        <v>0.163534246345828</v>
+        <v>0.163332116468453</v>
       </c>
       <c r="F102" t="e">
         <v>#NUM!</v>
@@ -3895,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.5031988748395</v>
+        <v>-1.50917043334102</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.715397537538436</v>
+        <v>0.71546199304785</v>
       </c>
       <c r="E103" t="n">
-        <v>0.308859051535004</v>
+        <v>0.308892087518132</v>
       </c>
       <c r="F103" t="e">
         <v>#NUM!</v>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.77575424851016</v>
+        <v>-0.775532491524568</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -3941,10 +3941,10 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.731633555146837</v>
+        <v>0.726389907412225</v>
       </c>
       <c r="E104" t="n">
-        <v>0.214860888753856</v>
+        <v>0.213366238572908</v>
       </c>
       <c r="F104" t="e">
         <v>#NUM!</v>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>-1.06402594203862</v>
+        <v>-1.08828773306135</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -3970,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.721222520745663</v>
+        <v>0.719907217546341</v>
       </c>
       <c r="E105" t="n">
-        <v>0.160726576763706</v>
+        <v>0.160453404666645</v>
       </c>
       <c r="F105" t="e">
         <v>#NUM!</v>
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>-1.46647168101993</v>
+        <v>-1.47447930926265</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -3999,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.971999605921546</v>
+        <v>0.96505639152819</v>
       </c>
       <c r="E106" t="n">
-        <v>0.215048917559945</v>
+        <v>0.213587120197166</v>
       </c>
       <c r="F106" t="e">
         <v>#NUM!</v>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.128364617850953</v>
+        <v>-0.160711199669333</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.823269424062764</v>
+        <v>0.817395406275378</v>
       </c>
       <c r="E107" t="n">
-        <v>0.180187817092606</v>
+        <v>0.178966744604125</v>
       </c>
       <c r="F107" t="e">
         <v>#NUM!</v>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.888532085182502</v>
+        <v>-0.920915999544505</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -4057,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>1.42982362739402</v>
+        <v>1.42994343566753</v>
       </c>
       <c r="E108" t="n">
-        <v>0.287350157971439</v>
+        <v>0.287389198175314</v>
       </c>
       <c r="F108" t="e">
         <v>#NUM!</v>
@@ -4069,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1.77913599635754</v>
+        <v>1.77946027103915</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -4086,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.909200035837139</v>
+        <v>0.902686385379293</v>
       </c>
       <c r="E109" t="n">
-        <v>0.223846253977382</v>
+        <v>0.222306065158638</v>
       </c>
       <c r="F109" t="e">
         <v>#NUM!</v>
@@ -4098,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.386635398449677</v>
+        <v>-0.415720157340761</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.790552082142778</v>
+        <v>0.790840859783491</v>
       </c>
       <c r="E110" t="n">
-        <v>0.158710299989273</v>
+        <v>0.158776943225149</v>
       </c>
       <c r="F110" t="e">
         <v>#NUM!</v>
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>-1.17067705485595</v>
+        <v>-1.16879404541167</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.875364104663448</v>
+        <v>0.881671164372688</v>
       </c>
       <c r="E111" t="n">
-        <v>0.211983945842383</v>
+        <v>0.213568086908395</v>
       </c>
       <c r="F111" t="e">
         <v>#NUM!</v>
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.549685057883482</v>
+        <v>-0.519900931502778</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -4173,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.877995969056679</v>
+        <v>0.883004236711413</v>
       </c>
       <c r="E112" t="n">
-        <v>0.231756041147175</v>
+        <v>0.233112489352881</v>
       </c>
       <c r="F112" t="e">
         <v>#NUM!</v>
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.492927526905194</v>
+        <v>-0.471309151927807</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.909948779633173</v>
+        <v>0.909909904657811</v>
       </c>
       <c r="E113" t="n">
-        <v>0.265962034299224</v>
+        <v>0.265957496064995</v>
       </c>
       <c r="F113" t="e">
         <v>#NUM!</v>
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.322862271838114</v>
+        <v>-0.323000154231244</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -4231,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.897000346662291</v>
+        <v>0.901789384730976</v>
       </c>
       <c r="E114" t="n">
-        <v>0.227032680588677</v>
+        <v>0.228250237377814</v>
       </c>
       <c r="F114" t="e">
         <v>#NUM!</v>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.429467104678722</v>
+        <v>-0.408419431566183</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -4260,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>1.20889733527151</v>
+        <v>1.20887468320302</v>
       </c>
       <c r="E115" t="n">
-        <v>0.276484716364296</v>
+        <v>0.276481800133027</v>
       </c>
       <c r="F115" t="e">
         <v>#NUM!</v>
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0.829479059981154</v>
+        <v>0.829390337335261</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -4289,10 +4289,10 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02391832969562</v>
+        <v>1.02390764051418</v>
       </c>
       <c r="E116" t="n">
-        <v>0.231752009650449</v>
+        <v>0.231751774957109</v>
       </c>
       <c r="F116" t="e">
         <v>#NUM!</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0.104431108533852</v>
+        <v>0.104384000915977</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -4318,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>1.13079212569249</v>
+        <v>1.13074710217615</v>
       </c>
       <c r="E117" t="n">
-        <v>0.276525227438596</v>
+        <v>0.276519792222659</v>
       </c>
       <c r="F117" t="e">
         <v>#NUM!</v>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0.502649039507256</v>
+        <v>0.502476086853919</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -4347,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0.983227050374843</v>
+        <v>0.990644176057817</v>
       </c>
       <c r="E118" t="n">
-        <v>0.237877066042581</v>
+        <v>0.239761027080466</v>
       </c>
       <c r="F118" t="e">
         <v>#NUM!</v>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.0699163263559831</v>
+        <v>-0.0388383433477181</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -4376,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>1.02164517637368</v>
+        <v>1.02127413124259</v>
       </c>
       <c r="E119" t="n">
-        <v>0.154073928488206</v>
+        <v>0.154074857514319</v>
       </c>
       <c r="F119" t="e">
         <v>#NUM!</v>
@@ -4388,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0.141995218136979</v>
+        <v>0.139535015874327</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -4405,10 +4405,10 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>1.16619935145684</v>
+        <v>1.1595727380964</v>
       </c>
       <c r="E120" t="n">
-        <v>0.161596473167239</v>
+        <v>0.160768909527326</v>
       </c>
       <c r="F120" t="e">
         <v>#NUM!</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1.10957372845148</v>
+        <v>1.06784706707664</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -4434,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>1.11985371804295</v>
+        <v>1.12190195116989</v>
       </c>
       <c r="E121" t="n">
-        <v>0.131933251366212</v>
+        <v>0.132290523463386</v>
       </c>
       <c r="F121" t="e">
         <v>#NUM!</v>
@@ -4446,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0.960828872823924</v>
+        <v>0.97548361716595</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -4463,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1.17750696861174</v>
+        <v>1.16895712046384</v>
       </c>
       <c r="E122" t="n">
-        <v>0.484718318500548</v>
+        <v>0.481245417298121</v>
       </c>
       <c r="F122" t="e">
         <v>#NUM!</v>
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0.396939833712968</v>
+        <v>0.379199944432666</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -4492,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.983825243038909</v>
+        <v>0.983765250746551</v>
       </c>
       <c r="E123" t="n">
-        <v>0.377093231191463</v>
+        <v>0.377072974781688</v>
       </c>
       <c r="F123" t="e">
         <v>#NUM!</v>
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.0425444776307099</v>
+        <v>-0.0427032637848179</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -4521,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1.12390402781841</v>
+        <v>1.11579610460154</v>
       </c>
       <c r="E124" t="n">
-        <v>0.508816095822312</v>
+        <v>0.505186596416206</v>
       </c>
       <c r="F124" t="e">
         <v>#NUM!</v>
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0.258013437663078</v>
+        <v>0.242001095393749</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -4550,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.986783206031132</v>
+        <v>0.985252687669254</v>
       </c>
       <c r="E125" t="n">
-        <v>0.394925995251509</v>
+        <v>0.394340697349193</v>
       </c>
       <c r="F125" t="e">
         <v>#NUM!</v>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.0332443671704536</v>
+        <v>-0.037120267558031</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -4579,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>1.02269509853817</v>
+        <v>1.01527392715555</v>
       </c>
       <c r="E126" t="n">
-        <v>0.449000086321589</v>
+        <v>0.445781864547212</v>
       </c>
       <c r="F126" t="e">
         <v>#NUM!</v>
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0511151479614851</v>
+        <v>0.0345235762515156</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -4608,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1.00814230256826</v>
+        <v>1.00621308265385</v>
       </c>
       <c r="E127" t="n">
-        <v>0.398404308406798</v>
+        <v>0.397655003697645</v>
       </c>
       <c r="F127" t="e">
         <v>#NUM!</v>
@@ -4620,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0205202638056567</v>
+        <v>0.0156727413067346</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -4637,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>1.3586845843306</v>
+        <v>1.34885766246936</v>
       </c>
       <c r="E128" t="n">
-        <v>0.535704060898673</v>
+        <v>0.531884279235623</v>
       </c>
       <c r="F128" t="e">
         <v>#NUM!</v>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0.77740672984391</v>
+        <v>0.758917946520228</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -4666,10 +4666,10 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>1.15078593490201</v>
+        <v>1.14247215675747</v>
       </c>
       <c r="E129" t="n">
-        <v>0.452205354532406</v>
+        <v>0.448985700516759</v>
       </c>
       <c r="F129" t="e">
         <v>#NUM!</v>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0.357409038401046</v>
+        <v>0.338921655417524</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -4695,10 +4695,10 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>1.9986420869071</v>
+        <v>1.9986294863491</v>
       </c>
       <c r="E130" t="n">
-        <v>0.766023767939955</v>
+        <v>0.766024525503576</v>
       </c>
       <c r="F130" t="e">
         <v>#NUM!</v>
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1.80672680588423</v>
+        <v>1.80669717927158</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -4724,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1.27090182469113</v>
+        <v>1.26168321189763</v>
       </c>
       <c r="E131" t="n">
-        <v>0.519554990986884</v>
+        <v>0.51583660679236</v>
       </c>
       <c r="F131" t="e">
         <v>#NUM!</v>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0.586404067004856</v>
+        <v>0.568540716642622</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -4753,10 +4753,10 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>1.1050528421763</v>
+        <v>1.10535691269152</v>
       </c>
       <c r="E132" t="n">
-        <v>0.42341421863164</v>
+        <v>0.423534099538124</v>
       </c>
       <c r="F132" t="e">
         <v>#NUM!</v>
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0.260707387160586</v>
+        <v>0.261423346209572</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>0.961992723388599</v>
+        <v>0.968965344656026</v>
       </c>
       <c r="E133" t="n">
-        <v>0.207309213734203</v>
+        <v>0.208884547801499</v>
       </c>
       <c r="F133" t="e">
         <v>#NUM!</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.179807114459107</v>
+        <v>-0.146243559599855</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -4811,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>0.964885044860025</v>
+        <v>0.970430404363478</v>
       </c>
       <c r="E134" t="n">
-        <v>0.231311964346335</v>
+        <v>0.232685409310198</v>
       </c>
       <c r="F134" t="e">
         <v>#NUM!</v>
@@ -4823,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.149110657931736</v>
+        <v>-0.125182070007539</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.985770151836346</v>
+        <v>0.991075468147708</v>
       </c>
       <c r="E135" t="n">
-        <v>0.224479084796716</v>
+        <v>0.22569638388361</v>
       </c>
       <c r="F135" t="e">
         <v>#NUM!</v>
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.0629373565493873</v>
+        <v>-0.0393652262585486</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -4869,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32853338817472</v>
+        <v>1.32856525356501</v>
       </c>
       <c r="E136" t="n">
-        <v>0.266048310520282</v>
+        <v>0.266061386558681</v>
       </c>
       <c r="F136" t="e">
         <v>#NUM!</v>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1.41855418184672</v>
+        <v>1.41863825599299</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -4898,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>1.12524831354617</v>
+        <v>1.12528464111976</v>
       </c>
       <c r="E137" t="n">
-        <v>0.222288671785341</v>
+        <v>0.222301907033854</v>
       </c>
       <c r="F137" t="e">
         <v>#NUM!</v>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0.597347143777723</v>
+        <v>0.597494281118434</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -4927,10 +4927,10 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>1.24269865623463</v>
+        <v>1.24270226798047</v>
       </c>
       <c r="E138" t="n">
-        <v>0.271113089653327</v>
+        <v>0.271124052874909</v>
       </c>
       <c r="F138" t="e">
         <v>#NUM!</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0.995968927334186</v>
+        <v>0.995944870090187</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -4956,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>1.08053010497054</v>
+        <v>1.08872776412997</v>
       </c>
       <c r="E139" t="n">
-        <v>0.232572780313069</v>
+        <v>0.234450732406988</v>
       </c>
       <c r="F139" t="e">
         <v>#NUM!</v>
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0.359839860846474</v>
+        <v>0.394763353839793</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -4985,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1.14149156519904</v>
+        <v>1.13541771266207</v>
       </c>
       <c r="E140" t="n">
-        <v>0.133451101507629</v>
+        <v>0.132755709439562</v>
       </c>
       <c r="F140" t="e">
         <v>#NUM!</v>
@@ -4997,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>1.13195166755219</v>
+        <v>1.0861961794157</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>1.09612783766851</v>
+        <v>1.09853164478461</v>
       </c>
       <c r="E141" t="n">
-        <v>0.109228842718861</v>
+        <v>0.109530463698398</v>
       </c>
       <c r="F141" t="e">
         <v>#NUM!</v>
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0.921064434662548</v>
+        <v>0.942512889572572</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -5043,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>1.08741587594178</v>
+        <v>1.09518769973147</v>
       </c>
       <c r="E142" t="n">
-        <v>0.106514688022514</v>
+        <v>0.107434944544456</v>
       </c>
       <c r="F142" t="e">
         <v>#NUM!</v>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0.855562160164289</v>
+        <v>0.926893745686529</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -5072,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1.23290223458405</v>
+        <v>1.24174144939075</v>
       </c>
       <c r="E143" t="n">
-        <v>0.114160935868724</v>
+        <v>0.1151718244272</v>
       </c>
       <c r="F143" t="e">
         <v>#NUM!</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>2.2611402571656</v>
+        <v>2.33438507467381</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -5101,10 +5101,10 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.726278355853505</v>
+        <v>0.730434882110206</v>
       </c>
       <c r="E144" t="n">
-        <v>0.103179565045398</v>
+        <v>0.103820143007531</v>
       </c>
       <c r="F144" t="e">
         <v>#NUM!</v>
@@ -5113,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>-2.25121847990634</v>
+        <v>-2.20998245175546</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -5130,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0.74199877896234</v>
+        <v>0.745974249656386</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0898836814586715</v>
+        <v>0.0903728100044646</v>
       </c>
       <c r="F145" t="e">
         <v>#NUM!</v>
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>-2.46338525139299</v>
+        <v>-2.41907211518748</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -5159,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.935391362607738</v>
+        <v>0.935371645951038</v>
       </c>
       <c r="E146" t="n">
-        <v>0.112536150454813</v>
+        <v>0.112533954650194</v>
       </c>
       <c r="F146" t="e">
         <v>#NUM!</v>
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.555155291876101</v>
+        <v>-0.55532962664232</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -5188,10 +5188,10 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>0.813325517136667</v>
+        <v>0.819476319441991</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0772969056527484</v>
+        <v>0.0780637732669479</v>
       </c>
       <c r="F147" t="e">
         <v>#NUM!</v>
@@ -5200,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>-2.17411623338507</v>
+        <v>-2.08994968254212</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -5217,10 +5217,10 @@
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0.96025925296906</v>
+        <v>0.967513217852681</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0858074917044787</v>
+        <v>0.086686141646245</v>
       </c>
       <c r="F148" t="e">
         <v>#NUM!</v>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.453811307346282</v>
+        <v>-0.368608833970359</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -5246,10 +5246,10 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.562333814133603</v>
+        <v>0.558280617904708</v>
       </c>
       <c r="E149" t="n">
-        <v>0.136334658683525</v>
+        <v>0.1353893475858</v>
       </c>
       <c r="F149" t="e">
         <v>#NUM!</v>
@@ -5258,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>-2.37439898672906</v>
+        <v>-2.40357290631623</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -5275,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.774115847444007</v>
+        <v>0.779724451803493</v>
       </c>
       <c r="E150" t="n">
-        <v>0.111675488489124</v>
+        <v>0.112566683391776</v>
       </c>
       <c r="F150" t="e">
         <v>#NUM!</v>
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>-1.77478317341327</v>
+        <v>-1.72348416820541</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -5304,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.776443299442861</v>
+        <v>0.780903382385017</v>
       </c>
       <c r="E151" t="n">
-        <v>0.138550812299788</v>
+        <v>0.139389990698617</v>
       </c>
       <c r="F151" t="e">
         <v>#NUM!</v>
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>-1.41799772581404</v>
+        <v>-1.38546827915147</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -5333,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0.793249551603463</v>
+        <v>0.79751642342966</v>
       </c>
       <c r="E152" t="n">
-        <v>0.128466117247857</v>
+        <v>0.129162657508187</v>
       </c>
       <c r="F152" t="e">
         <v>#NUM!</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>-1.43018574518991</v>
+        <v>-1.39700102116197</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -5362,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0.905487672253273</v>
+        <v>0.905514273300935</v>
       </c>
       <c r="E153" t="n">
-        <v>0.104801815682918</v>
+        <v>0.10480549856017</v>
       </c>
       <c r="F153" t="e">
         <v>#NUM!</v>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.857793148221234</v>
+        <v>-0.85753438708141</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -5391,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>0.869502915730621</v>
+        <v>0.87609702837292</v>
       </c>
       <c r="E154" t="n">
-        <v>0.125097927910245</v>
+        <v>0.126177228841068</v>
       </c>
       <c r="F154" t="e">
         <v>#NUM!</v>
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.971924298533382</v>
+        <v>-0.918460022887777</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
